--- a/app/tests/testMC.xlsx
+++ b/app/tests/testMC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoend008\OneDrive - WageningenUR\DEVELOPMENT\mc-app\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoend008\OneDrive - WageningenUR\DEVELOPMENT\mc-api\app\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15911C7-A759-490C-96C7-1535DAC5200D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700AEA3-1F39-41B4-A806-7B9079F8F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -991,7 +993,7 @@
         <v>77</v>
       </c>
       <c r="AU2" s="1">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>78</v>
